--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_24</t>
+          <t>model_15_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9986896815197079</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985826819292796</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.996927762273297</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9990795400925341</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9985033257427228</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001223124785018809</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001323004205944488</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001987569595943103</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004788997956422221</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001233234695792663</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003959565793404376</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03497320095471401</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003494182614112</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0364620825238626</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P2" t="n">
-        <v>79.41269279115565</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q2" t="n">
-        <v>119.6355950118063</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_23</t>
+          <t>model_15_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9986620728398317</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9985630079957735</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9968568632852483</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9990601067324081</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9984693574518203</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001248896275802324</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00134136895928652</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002033437359301488</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000489010645791731</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001261224002546609</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004001173674723651</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0353397265949006</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N3" t="n">
-        <v>1.003567805760449</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0368442119193646</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P3" t="n">
-        <v>79.37099019416394</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q3" t="n">
-        <v>119.5938924148146</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_22</t>
+          <t>model_15_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.998633891401757</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9985428500419784</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9967843886578128</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9990402693555034</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9984346430563308</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001275202411222917</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001360185524322344</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002080324475072492</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0004993316990702674</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00128982808707138</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004043208355499346</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03570997635427552</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003642956261982</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03723022397751878</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P4" t="n">
-        <v>79.32930071814297</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q4" t="n">
-        <v>119.5522029387936</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_21</t>
+          <t>model_15_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9986051192485977</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985221834495501</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9967102968592554</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9990200270580408</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9983991659667323</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001302059953245415</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001379476881195529</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002128257812014927</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005098634256990169</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001319060618856972</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004085662900290695</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03608406785889606</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003719682003739</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03762024133196717</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P5" t="n">
-        <v>79.2876153784328</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q5" t="n">
-        <v>119.5105175990834</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_20</t>
+          <t>model_15_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9985757582785302</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9985010039320408</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9966345783401976</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9989993578208911</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9983629154825012</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001329467130005861</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001399247031117157</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002177243548053862</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0005206172818602812</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001348930414957072</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004128535336342313</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03646185856488751</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003797977923919</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03801411537044726</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P6" t="n">
-        <v>79.24595414232543</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q6" t="n">
-        <v>119.4688563629761</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_19</t>
+          <t>model_15_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9985457797137405</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9984792995933101</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9965571563686848</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9989782767057007</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F7" t="n">
-        <v>0.998325866235982</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001357450804330179</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00141950707861194</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002227331324562624</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0005315854312328946</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001379458377897759</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004171848393716494</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0368435992314836</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N7" t="n">
-        <v>1.003877920763359</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03841210752753246</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P7" t="n">
-        <v>79.20429349343394</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4271957140846</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_18</t>
+          <t>model_15_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.998515183958779</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9984570590348522</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9964780686705563</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9989567758706512</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9982880305615174</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001386010598588195</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001440267663684661</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002278496734988729</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0005427719537829839</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001410634344385857</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004215572910123535</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03722916328079634</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003959509443256</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03881408583665206</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P8" t="n">
-        <v>79.16265146270926</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q8" t="n">
-        <v>119.3855536833599</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_17</t>
+          <t>model_15_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9984839476302451</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9984342682057477</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9963972069270736</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E9" t="n">
-        <v>0.998934806492546</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9982493505221488</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001415168340158319</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001461541902251989</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002330809855625272</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0005542022513979902</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001442506053511631</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004259754342417489</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03761872326592596</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N9" t="n">
-        <v>1.004042806319347</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03922023019684899</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P9" t="n">
-        <v>79.12101357330667</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q9" t="n">
-        <v>119.3439157939573</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_16</t>
+          <t>model_15_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9984520663680204</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C10" t="n">
-        <v>0.998410923939232</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9963145905418886</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E10" t="n">
-        <v>0.998912419014908</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F10" t="n">
-        <v>0.998209849660837</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001444928099019392</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001483332750349416</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002384258133371891</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0005658500791619121</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001475054106266901</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004304374015598282</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03801220986761217</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004127823018612</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03963046833779853</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P10" t="n">
-        <v>79.07939143423965</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.3022936548903</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_15</t>
+          <t>model_15_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9984195157582828</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9983870000935049</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9962301759935652</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9988895336289026</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9981694856956733</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001475312664402813</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001505664610200265</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002438869724214772</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0005777569602680317</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001508313342241402</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004349451573545076</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03840979906746211</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004214624644579</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04004498373300919</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P11" t="n">
-        <v>79.0377706715755</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q11" t="n">
-        <v>119.2606728922261</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_14</t>
+          <t>model_15_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9983863043709067</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9983625001143214</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D12" t="n">
-        <v>0.99614386464369</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9988662105057923</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9981282389007994</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001506314036706944</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001528534265343292</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002494708441806778</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0005898915886214235</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001542300015214101</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004394956676334374</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03881126172526402</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N12" t="n">
-        <v>1.004303188344249</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O12" t="n">
-        <v>0.040463537487296</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P12" t="n">
-        <v>78.99617929526538</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.219081515916</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_13</t>
+          <t>model_15_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.998352395499958</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9983374020354226</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9960557477094669</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9988423914748937</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9980861267203232</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001537966479310151</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001551962220316882</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002551715273611231</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006022842294493301</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001576999751530281</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004440933889266164</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03921691572918695</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N13" t="n">
-        <v>1.004393612000112</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04088646102198548</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P13" t="n">
-        <v>78.95458840624619</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.1774906268968</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9983177863766529</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9983116943485234</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9959657077243189</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9988180979882848</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9980431098128627</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001570272576750577</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001575959217600338</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002609966214071976</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0006149237215967662</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001612444967834371</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004487368577111696</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03962666497133688</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N14" t="n">
-        <v>1.004485902995592</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04131365413767159</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P14" t="n">
-        <v>78.91301211785338</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q14" t="n">
-        <v>119.135914338504</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_11</t>
+          <t>model_15_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9982824664953868</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9982853620379347</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9958737526531265</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9987933052193279</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9979991834671336</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001603242135548868</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001600539273680028</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002669456110347317</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0006278229819453876</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001648639546146352</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004534263295009473</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04004050618497308</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004580089345635</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0417451134285417</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P15" t="n">
-        <v>78.87145473053073</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.0943569511814</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_10</t>
+          <t>model_15_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.998246405992346</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9982583988029472</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9957796693314009</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9987679927760185</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9979542575627672</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001636903032264293</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001625708269991582</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002730322868190208</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006409926201118776</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001685657744151043</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004581637641483434</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04045865831023433</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N16" t="n">
-        <v>1.004676250687077</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04218106715546954</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P16" t="n">
-        <v>78.82989843474493</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.0528006553956</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_9</t>
+          <t>model_15_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9982096124880587</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.998230784184241</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9956836953643083</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9987421786004246</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9979084310413778</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00167124815346824</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001651485304412119</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002792412770067754</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000654423301140263</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001723418035604009</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00462947322750394</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04088090206279994</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00477436669851</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04262128669874694</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P17" t="n">
-        <v>78.78836906885873</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q17" t="n">
-        <v>119.0112712895094</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_8</t>
+          <t>model_15_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9981720584226427</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9982025143445707</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9955856016747651</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9987158349151095</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9978616052040902</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00170630322510122</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001677873958841775</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002855874016310322</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0006681294771632812</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001762001746736802</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004677786004406317</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04130742336555526</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004874510872953</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04306596589638136</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P18" t="n">
-        <v>78.74685221063802</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.9697544312887</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_7</t>
+          <t>model_15_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9981337229698047</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C19" t="n">
-        <v>0.998173564055272</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9954853901260021</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9986889249517752</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9978137691741568</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001742087687593539</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001704897783131399</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002920705401509621</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0006821302781074396</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00180141783980853</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004726581050565116</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04173832396723111</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004976738747187</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04351521082875778</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P19" t="n">
-        <v>78.70534212901796</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9282443496686</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_6</t>
+          <t>model_15_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9980946033188797</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C20" t="n">
-        <v>0.998143927952135</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9953830856048597</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9986615062321996</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9977649508817746</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00177860416457786</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001732561784535197</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002986890825242589</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0006963957763600458</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001841643300801318</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004775866604404561</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04217350073894578</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N20" t="n">
-        <v>1.005081057816321</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04396891397658444</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P20" t="n">
-        <v>78.66385279901874</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q20" t="n">
-        <v>118.8867550196694</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_5</t>
+          <t>model_15_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9980546833744969</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9981135946562072</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9952786331881152</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9986334730070799</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9977150953792935</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001815867680376134</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001760876584805986</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I21" t="n">
-        <v>0.003054465819827028</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0007109809915031801</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001882723405665104</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004825638372200808</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0426129989601311</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N21" t="n">
-        <v>1.005187511001342</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04442712254693236</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P21" t="n">
-        <v>78.62238372937338</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.845285950024</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_4</t>
+          <t>model_15_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9980139418576927</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9980825448168005</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9951719451405301</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9986048745936332</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9976641837943799</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001853898097966963</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001789860246961761</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003123487145158617</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0007258602646189661</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001924673704888792</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004875911976051616</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0430569169584512</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N22" t="n">
-        <v>1.005296155046153</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04488993905347789</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P22" t="n">
-        <v>78.58092955337875</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.8038317740294</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_3</t>
+          <t>model_15_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.997972379762852</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9980507644534193</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9950630078785486</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9985757493050981</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9976122228904692</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001892694489135586</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001819525821181319</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00319396358905406</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0007410136619742953</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001967488625514178</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00492664709842491</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04350510877052931</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N23" t="n">
-        <v>1.005406987299061</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04535721131888112</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P23" t="n">
-        <v>78.53950761913086</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q23" t="n">
-        <v>118.7624098397815</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_2</t>
+          <t>model_15_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9979299446296499</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9980182417687605</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D24" t="n">
-        <v>0.994951778944086</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9985459787256064</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9975591586143835</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001932305823292749</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001849884319729399</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003265922619569695</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0007565027933520772</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002011212706460886</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L24" t="n">
-        <v>0.004977929786049233</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04395800067442501</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N24" t="n">
-        <v>1.005520147654267</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04582938376874113</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P24" t="n">
-        <v>78.49808252417827</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q24" t="n">
-        <v>118.7209847448289</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_1</t>
+          <t>model_15_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9978866496079849</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9979849495063627</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9948381886066334</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9985156138266534</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9975049796842141</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001972719825585216</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00188096118531637</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I25" t="n">
-        <v>0.003339409348526704</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0007723011391412866</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002055855243833995</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005029701393879486</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04441531071134386</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N25" t="n">
-        <v>1.005635601045374</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0463061624406939</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P25" t="n">
-        <v>78.45668413258038</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.679586353231</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_0</t>
+          <t>model_15_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.997842476813245</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9979508866270724</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9947222826793006</v>
+        <v>0.9998255955268059</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9984845980702058</v>
+        <v>0.9998950477072013</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9974496862351497</v>
+        <v>0.9998682666564682</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002013953190513335</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001912757387946286</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003414394137351488</v>
+        <v>0.0001096310088447326</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0007884381151290253</v>
+        <v>0.0001027761784366496</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002101416126240257</v>
+        <v>0.0001062035936406911</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005081983130413876</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0448770898177827</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00575339516468</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04678760043970837</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P26" t="n">
-        <v>78.41531145400971</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q26" t="n">
-        <v>118.6382136746603</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
   </sheetData>
